--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -452,10 +452,10 @@
         <v>2017-5-4</v>
       </c>
       <c r="D4" t="str">
-        <v>2017-5-8</v>
+        <v>2017-05-08</v>
       </c>
       <c r="E4" t="str">
-        <v>2017-5-11</v>
+        <v>2017-05-11</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -592,10 +592,10 @@
         <v>2017-5-21</v>
       </c>
       <c r="D11" t="str">
-        <v>2017-6-2</v>
+        <v>2017-06-02</v>
       </c>
       <c r="E11" t="str">
-        <v>2017-6-2</v>
+        <v>2017-07-02</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -835,7 +835,7 @@
         <v>2017-07-02</v>
       </c>
       <c r="E23" t="str">
-        <v>2017-08-02</v>
+        <v>2017-09-04</v>
       </c>
       <c r="F23">
         <v>22</v>
